--- a/xlsx/Volvo_intext.xlsx
+++ b/xlsx/Volvo_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
   <si>
     <t>Volvo</t>
   </si>
@@ -29,7 +29,7 @@
     <t>富豪 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Volvo</t>
+    <t>政策_政策_混合动力车辆_Volvo</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E6%B2%83%E6%B1%BD%E8%BD%A6</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Assar_Gabrielsson</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>卡車</t>
+    <t>卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%BD%A6</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>金融服務</t>
+    <t>金融服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%85%8B%E6%9C%97</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E6%94%B6%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>實收資本</t>
+    <t>实收资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%85%AC%E5%8F%B8</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E</t>
   </si>
   <si>
-    <t>瑞典語</t>
+    <t>瑞典语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8D%9A%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>薩博汽車</t>
+    <t>萨博汽车</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Assar_Gabrilsson</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BE%E7%8F%A0%E8%BB%B8%E6%89%BF</t>
   </si>
   <si>
-    <t>滾珠軸承</t>
+    <t>滚珠轴承</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SKF</t>
@@ -317,31 +317,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>工程師</t>
+    <t>工程师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E5%AD%B8</t>
   </si>
   <si>
-    <t>行銷學</t>
+    <t>行销学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>經理</t>
+    <t>经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Torslanda</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA</t>
   </si>
   <si>
-    <t>渦輪</t>
+    <t>涡轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福特汽車</t>
+    <t>福特汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%88%A9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>吉利汽車</t>
+    <t>吉利汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E5%85%AC%E5%8F%B8</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%A2%A8%E6%B1%BD%E8%BB%8A%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東風汽車集團</t>
+    <t>东风汽车集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -485,25 +485,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%B9%A3</t>
   </si>
   <si>
-    <t>人民幣</t>
+    <t>人民币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E8%B3%87</t>
   </si>
   <si>
-    <t>合資</t>
+    <t>合资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>日產汽車</t>
+    <t>日产汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E7%94%A8%E8%BB%8A</t>
   </si>
   <si>
-    <t>商用車</t>
+    <t>商用车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9A%E5%8A%A1</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%88%A9%E6%8E%A7%E8%82%A1</t>
@@ -539,13 +539,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Volvo_Aero</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99</t>
   </si>
   <si>
-    <t>財務</t>
+    <t>财务</t>
   </si>
   <si>
     <t>https://sv.wikipedia.org/wiki/Dongfeng_Commercial_Vehicles</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E5%95%86</t>
   </si>
   <si>
-    <t>製造商</t>
+    <t>制造商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -587,9 +584,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>福特汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
   </si>
   <si>
@@ -635,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%B8%B9%E5%B0%BC%E5%A3%AB</t>
   </si>
   <si>
-    <t>亞歷山大丹尼士</t>
+    <t>亚历山大丹尼士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%96%AF%E6%95%A6</t>
@@ -653,15 +647,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%89%B9%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>萊特巴士</t>
+    <t>莱特巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AF%BA</t>
   </si>
   <si>
@@ -671,31 +662,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BA%A7%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>日产汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E8%83%A1%E7%88%BE%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>范胡爾公司</t>
+    <t>范胡尔公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VDL%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>VDL集團</t>
+    <t>VDL集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E9%9C%8D%E5%A4%AB</t>
@@ -719,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E9%9B%86%E5%9B%A2</t>
@@ -737,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/MAN%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>MAN集團</t>
+    <t>MAN集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%A5%A5%E6%99%AE%E5%85%B0</t>
@@ -755,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%AB</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士</t>
+    <t>梅赛德斯-宾士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%89%B6%E6%A1%91%E5%8D%A1%E5%AE%A2%E8%BD%A6</t>
@@ -773,13 +761,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%9C%B8_(%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8)</t>
   </si>
   <si>
-    <t>歐霸 (汽車公司)</t>
+    <t>欧霸 (汽车公司)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%90%A8%E5%AE%A2%E8%BD%A6</t>
@@ -797,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E6%8B%89%E7%91%9E%E6%96%AF%E5%AE%A2%E8%BD%A6</t>
@@ -815,37 +803,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%87%B1%E6%B4%9B%E6%96%AF%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>伊凱洛斯巴士</t>
+    <t>伊凯洛斯巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UD%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>UD卡車</t>
+    <t>UD卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B0%94%E5%9F%BA%E6%B1%BD%E8%BD%A6%E5%8E%82</t>
@@ -863,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>塔塔汽車</t>
+    <t>塔塔汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -881,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E9%80%9A%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>宇通客車</t>
+    <t>宇通客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%BE%99</t>
@@ -947,13 +935,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%9A%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>中通客車</t>
+    <t>中通客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>青年汽車</t>
+    <t>青年汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%B7%AE%E6%B1%BD%E8%BD%A6</t>
@@ -1001,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%B4%B2%E9%BE%8D</t>
   </si>
   <si>
-    <t>五洲龍</t>
+    <t>五洲龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BA%9A%E8%BF%AA</t>
@@ -1055,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>現代汽車</t>
+    <t>现代汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E9%BE%99%E6%B1%BD%E8%BD%A6</t>
@@ -1085,19 +1073,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8D%81%E9%88%B4</t>
   </si>
   <si>
-    <t>五十鈴</t>
+    <t>五十铃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%BE%B7%E5%8B%95%E8%83%BD%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>華德動能科技</t>
+    <t>华德动能科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -1181,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%87%B1%E5%AD%9A</t>
   </si>
   <si>
-    <t>斯凱孚</t>
+    <t>斯凯孚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%8D%9A%E9%9B%86%E5%9B%A2</t>
@@ -1211,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>瑞典經濟</t>
+    <t>瑞典经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E4%BA%A4%E9%80%9A</t>
@@ -1229,25 +1217,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B0%BC%E8%B3%BD%E5%85%8B</t>
   </si>
   <si>
-    <t>科尼賽克</t>
+    <t>科尼赛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AA%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>富豪汽車</t>
+    <t>富豪汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%AE%89_(%E6%B1%BD%E8%BB%8A%E8%A8%AD%E5%82%99)</t>
   </si>
   <si>
-    <t>美安 (汽車設備)</t>
+    <t>美安 (汽车设备)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%91%9E%E5%A0%A1%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>特瑞堡集團</t>
+    <t>特瑞堡集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E6%B2%83%E9%9B%86%E5%9B%A2</t>
@@ -4150,7 +4138,7 @@
         <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4176,10 +4164,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4205,10 +4193,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4234,10 +4222,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4263,10 +4251,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4292,10 +4280,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4321,10 +4309,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -4350,10 +4338,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4379,10 +4367,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="G96" t="n">
         <v>6</v>
@@ -4408,10 +4396,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4437,10 +4425,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4466,10 +4454,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4495,10 +4483,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4524,10 +4512,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4553,10 +4541,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4582,10 +4570,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4611,10 +4599,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4640,10 +4628,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4669,10 +4657,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4698,10 +4686,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4727,10 +4715,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4756,10 +4744,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4785,10 +4773,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4814,10 +4802,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4843,10 +4831,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4872,10 +4860,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4901,10 +4889,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4930,10 +4918,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4959,10 +4947,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4988,10 +4976,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5017,10 +5005,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5046,10 +5034,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5075,10 +5063,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5104,10 +5092,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5133,10 +5121,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5162,10 +5150,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5191,10 +5179,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5220,10 +5208,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5249,10 +5237,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5278,10 +5266,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5307,10 +5295,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5336,10 +5324,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5365,10 +5353,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5394,10 +5382,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5423,10 +5411,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5452,10 +5440,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5481,10 +5469,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5510,10 +5498,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5539,10 +5527,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5568,10 +5556,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5597,10 +5585,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5626,10 +5614,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5655,10 +5643,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5684,10 +5672,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5713,10 +5701,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5742,10 +5730,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -5771,10 +5759,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5800,10 +5788,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5829,10 +5817,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -5858,10 +5846,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5887,10 +5875,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5916,10 +5904,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5945,10 +5933,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5974,10 +5962,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6003,10 +5991,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6032,10 +6020,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6061,10 +6049,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6090,10 +6078,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6119,10 +6107,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6148,10 +6136,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6177,10 +6165,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6206,10 +6194,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6235,10 +6223,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6264,10 +6252,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6293,10 +6281,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6322,10 +6310,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6351,10 +6339,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6380,10 +6368,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6409,10 +6397,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6438,10 +6426,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6467,10 +6455,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6496,10 +6484,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6525,10 +6513,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6554,10 +6542,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6583,10 +6571,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6612,10 +6600,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6641,10 +6629,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6670,10 +6658,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6699,10 +6687,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6728,10 +6716,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -6757,10 +6745,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6786,10 +6774,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6815,10 +6803,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6844,10 +6832,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6873,10 +6861,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6902,10 +6890,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6931,10 +6919,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6960,10 +6948,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6989,10 +6977,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7018,10 +7006,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7047,10 +7035,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7076,10 +7064,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7105,10 +7093,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7134,10 +7122,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7163,10 +7151,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7192,10 +7180,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7221,10 +7209,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7250,10 +7238,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F195" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7279,10 +7267,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7308,10 +7296,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7337,10 +7325,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7366,10 +7354,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7395,10 +7383,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7424,10 +7412,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7453,10 +7441,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7482,10 +7470,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7511,10 +7499,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7540,10 +7528,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7598,10 +7586,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -7627,10 +7615,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7656,10 +7644,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F209" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7685,10 +7673,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F210" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7714,10 +7702,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7743,10 +7731,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -7772,10 +7760,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
